--- a/2023/04合作商资料/合作商列表.xlsx
+++ b/2023/04合作商资料/合作商列表.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\04合作商资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9BC632-B600-4ACF-9D85-18C7AED8AF9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9DD92-2A44-4DB4-8D62-FCE8083270FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
   </bookViews>
   <sheets>
-    <sheet name="待开发商家列表" sheetId="1" r:id="rId1"/>
+    <sheet name="意向合作商开发列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">待开发商家列表!$I$3:$I$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">意向合作商开发列表!$K$3:$K$22</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
   </si>
   <si>
     <t>深圳市龙华区</t>
-  </si>
-  <si>
-    <t>合作类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>自主品牌</t>
@@ -177,16 +173,135 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>算法解决方案移植</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>深圳市微健科技有限公司是一家专业从事半导体元器件代理销售及方案开发设计为一体的综合性企业。专注于DSP音效方案、K歌话简方案、车载话简方案、手机直播声卡方案、Soundbar音箱方案、HDMI ARC音频输出方案、NFC近距离数据透传方案、K歌蓝牙耳机方案、吉他加振拾音器方案、蓝牙眼镜镜腿方案，蓝牙解决方案等消费类电子产品方案。http://www.wellking-tech.com/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mimi</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>期望合作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waves</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViFa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聆感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珑为</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>消费电子类算法解决方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麦克风/降噪耳机类前端算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音箱/耳机类后端音效处理算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音箱类产品完整系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音箱/SoundBar类产品完整系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音箱/卡拉OK类产品完整系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待研究</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅听耳机类算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋伯勋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王永明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈健康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Philip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealClear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘睿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优塔晟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声学方案</t>
+  </si>
+  <si>
+    <t>音箱类产品功放合作方案&amp;IC合封选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昂瑞微</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原厂</t>
   </si>
 </sst>
 </file>
@@ -365,17 +480,60 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -677,7 +835,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -685,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682D07EF-7A49-45B9-BC2D-114FE6E2E451}">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -697,17 +855,18 @@
     <col min="2" max="2" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="5"/>
-    <col min="7" max="7" width="14.77734375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="34.33203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="67.88671875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="5"/>
+    <col min="9" max="9" width="14.77734375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -717,73 +876,80 @@
       <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" spans="2:12" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="6" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="I3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
       <c r="J4" s="4"/>
-      <c r="K4" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="K4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -794,22 +960,27 @@
         <v>4</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
-        <v>23</v>
+      <c r="H5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="K5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -820,22 +991,27 @@
         <v>5</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4" t="s">
-        <v>23</v>
+      <c r="I6" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="J6" s="4"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="K6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -846,190 +1022,294 @@
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4" t="s">
-        <v>22</v>
+      <c r="H7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="J7" s="4"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="2:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="2:11" ht="138" x14ac:dyDescent="0.25">
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="2:12" ht="138" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="2:11" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="2:12" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J15" s="4"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>55</v>
+      </c>
       <c r="J16" s="4"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="E18" s="4"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="3">
         <v>16</v>
       </c>
@@ -1037,13 +1317,14 @@
       <c r="D19" s="3"/>
       <c r="E19" s="4"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="3">
         <v>17</v>
       </c>
@@ -1051,13 +1332,14 @@
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="3">
         <v>18</v>
       </c>
@@ -1065,13 +1347,14 @@
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="3">
         <v>19</v>
       </c>
@@ -1079,30 +1362,46 @@
       <c r="D22" s="3"/>
       <c r="E22" s="4"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="3"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="I3:I22" xr:uid="{682D07EF-7A49-45B9-BC2D-114FE6E2E451}"/>
-  <mergeCells count="7">
-    <mergeCell ref="K2:K3"/>
+  <autoFilter ref="K3:K22" xr:uid="{682D07EF-7A49-45B9-BC2D-114FE6E2E451}"/>
+  <mergeCells count="8">
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="B2:B3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D10" xr:uid="{CD496E2B-EB4F-4225-9C56-A5B8805F5B0E}">
-      <formula1>"IDH,算法,代理商,ODM&amp;OEM,自主品牌"</formula1>
+  <conditionalFormatting sqref="F4:F22">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Pending"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D22" xr:uid="{CD496E2B-EB4F-4225-9C56-A5B8805F5B0E}">
+      <formula1>"IDH,算法,代理商,原厂,ODM&amp;OEM,自主品牌,声学方案"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I12" xr:uid="{72683558-4094-4A91-A695-545408A668D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K12" xr:uid="{72683558-4094-4A91-A695-545408A668D7}">
       <formula1>"深圳市南山区,深圳市宝安区,深圳市龙华区,深圳市龙岗区,东莞市长安镇,中山市五桂山镇,东莞市高埗镇,"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F22" xr:uid="{55A1DE0A-AF3D-4806-B7BB-5075890B434D}">
+      <formula1>"Pass,Fail,Pending"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2023/04合作商资料/合作商列表.xlsx
+++ b/2023/04合作商资料/合作商列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\04合作商资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rosa/Documents/Work/Soundec/soundec/2023/04合作商资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F9DD92-2A44-4DB4-8D62-FCE8083270FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EFAEEA-AAAB-A149-8A2B-FB211DACA9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12720" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
   </bookViews>
   <sheets>
     <sheet name="意向合作商开发列表" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,7 +490,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -509,27 +509,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
         </patternFill>
       </fill>
     </dxf>
@@ -846,27 +825,27 @@
   <dimension ref="B2:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="67.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="67.83203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" style="5"/>
-    <col min="9" max="9" width="14.77734375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" ht="15.5" customHeight="1">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -895,7 +874,7 @@
       </c>
       <c r="L2" s="12"/>
     </row>
-    <row r="3" spans="2:12" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" s="2" customFormat="1" ht="17">
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -918,7 +897,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="34.75" customHeight="1">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -949,7 +928,7 @@
       </c>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="34.75" customHeight="1">
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -980,7 +959,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="34.75" customHeight="1">
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1011,7 +990,7 @@
       </c>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="34.75" customHeight="1">
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1042,7 +1021,7 @@
       </c>
       <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="2:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="25.75" customHeight="1">
       <c r="B8" s="3">
         <v>5</v>
       </c>
@@ -1071,7 +1050,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="2:12" ht="138" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="160" hidden="1">
       <c r="B9" s="3">
         <v>6</v>
       </c>
@@ -1090,7 +1069,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:12" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="91.25" customHeight="1">
       <c r="B10" s="3">
         <v>7</v>
       </c>
@@ -1113,7 +1092,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="18.5" customHeight="1">
       <c r="B11" s="3">
         <v>8</v>
       </c>
@@ -1140,7 +1119,7 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="18.5" customHeight="1">
       <c r="B12" s="3">
         <v>9</v>
       </c>
@@ -1163,7 +1142,7 @@
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="18.5" customHeight="1">
       <c r="B13" s="3">
         <v>10</v>
       </c>
@@ -1186,7 +1165,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="18.5" customHeight="1">
       <c r="B14" s="3">
         <v>11</v>
       </c>
@@ -1213,7 +1192,7 @@
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="2:12" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="18.5" customHeight="1">
       <c r="B15" s="3">
         <v>12</v>
       </c>
@@ -1240,7 +1219,7 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="16">
       <c r="B16" s="3">
         <v>13</v>
       </c>
@@ -1267,7 +1246,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="16">
       <c r="B17" s="3">
         <v>14</v>
       </c>
@@ -1290,7 +1269,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="16">
       <c r="B18" s="3">
         <v>15</v>
       </c>
@@ -1309,7 +1288,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12">
       <c r="B19" s="3">
         <v>16</v>
       </c>
@@ -1324,7 +1303,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12">
       <c r="B20" s="3">
         <v>17</v>
       </c>
@@ -1339,7 +1318,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" s="3">
         <v>18</v>
       </c>
@@ -1354,7 +1333,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12">
       <c r="B22" s="3">
         <v>19</v>
       </c>

--- a/2023/04合作商资料/合作商列表.xlsx
+++ b/2023/04合作商资料/合作商列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rosa/Documents/Work/Soundec/soundec/2023/04合作商资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\04合作商资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EFAEEA-AAAB-A149-8A2B-FB211DACA9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EABF4F-FB2D-4D1A-8740-80973F7D098D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12720" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
   </bookViews>
   <sheets>
     <sheet name="意向合作商开发列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,26 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>市区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>公司类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -115,17 +95,10 @@
     <t>深圳市龙华区</t>
   </si>
   <si>
-    <t>自主品牌</t>
-  </si>
-  <si>
     <t>深圳市南山区</t>
   </si>
   <si>
     <t>中山市五桂山镇</t>
-  </si>
-  <si>
-    <t>家用卡拉OK系统自主研发，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>出门问问成立于2012年，是一家以语音交互和软硬结合为核心的人工智能公司，为全球40多个国家和地区的消费者、企业提供人工智能产品和服务。</t>
@@ -197,14 +170,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>聆感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>珑为</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -238,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待研究</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>辅听耳机类算法</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -293,22 +254,90 @@
     <t>声学方案</t>
   </si>
   <si>
-    <t>音箱类产品功放合作方案&amp;IC合封选择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>昂瑞微</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>原厂</t>
+  </si>
+  <si>
+    <t>深圳市飞扬信科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>家用卡拉OK系统自主研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂未联系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notStart</t>
+  </si>
+  <si>
+    <t>聆感科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市珑为科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>珑为自创的声学设计体系，在音乐重放的科学性的基础上增加一定的艺术性，为消费者重放 出动人心弦的 音乐。我们 的 重放 理念 是以人为 中心，可从多个方面帮助提升音频设备的音质：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RealClear是一家全球领先的音频技术授权提供商。总部位于中国深圳，重庆设立研发中心。通过专注于信号处理算法以及嵌入式解决方案，针对主流的DSP芯片开发出符合用户场景需求的音频解决方案。为客户提供低延时高清晰的音视频产品；
+成熟方案：远场高清拾音（会议类）、阵列吊麦类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音箱类产品功放合作方案&amp;IC合封选择，硬解DSD方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘昶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昂瑞微电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4G、蓝牙无线方案配合选择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈清平</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>泰凌微IDH，麦克风类产品完整方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯圆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allengo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,15 +354,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="14"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -354,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -388,19 +424,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,51 +469,66 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -822,546 +860,557 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682D07EF-7A49-45B9-BC2D-114FE6E2E451}">
-  <dimension ref="B2:L22"/>
+  <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="67.83203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="5"/>
-    <col min="9" max="9" width="14.83203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.21875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="91.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.77734375" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="30.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.5" customHeight="1">
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="2:12" s="10" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="9"/>
+    </row>
+    <row r="3" spans="2:12" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="3"/>
+    </row>
+    <row r="5" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" ht="25.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="2:12" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="2:12" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="2:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="2:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="2:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="12"/>
-    </row>
-    <row r="3" spans="2:12" s="2" customFormat="1" ht="17">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="6" t="s">
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
         <v>12</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" ht="34.75" customHeight="1">
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="2:12" ht="34.75" customHeight="1">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
         <v>16</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="2:12" ht="34.75" customHeight="1">
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C18" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4" t="s">
+      <c r="E18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
         <v>17</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="2:12" ht="34.75" customHeight="1">
-      <c r="B7" s="3">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="3" t="s">
+      <c r="C19" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="E19" s="3"/>
+      <c r="F19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
         <v>18</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="2:12" ht="25.75" customHeight="1">
-      <c r="B8" s="3">
-        <v>5</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4" t="s">
+      <c r="C20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="2:12" ht="160" hidden="1">
-      <c r="B9" s="3">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="2:12" ht="91.25" customHeight="1">
-      <c r="B10" s="3">
-        <v>7</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="2:12" ht="18.5" customHeight="1">
-      <c r="B11" s="3">
-        <v>8</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="2:12" ht="18.5" customHeight="1">
-      <c r="B12" s="3">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="2:12" ht="18.5" customHeight="1">
-      <c r="B13" s="3">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="2:12" ht="18.5" customHeight="1">
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="2:12" ht="18.5" customHeight="1">
-      <c r="B15" s="3">
-        <v>12</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="2:12" ht="16">
-      <c r="B16" s="3">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="2:12" ht="16">
-      <c r="B17" s="3">
-        <v>14</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="2:12" ht="16">
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="2:12">
-      <c r="B19" s="3">
-        <v>16</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="2:12">
-      <c r="B20" s="3">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="3">
-        <v>18</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="2:12">
-      <c r="B22" s="3">
-        <v>19</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="K3:K22" xr:uid="{682D07EF-7A49-45B9-BC2D-114FE6E2E451}"/>
-  <mergeCells count="8">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="G2:G3"/>
+  <mergeCells count="2">
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="F4:F22">
+  <conditionalFormatting sqref="F3:F21">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Pending"</formula>
     </cfRule>
@@ -1373,14 +1422,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4:D22" xr:uid="{CD496E2B-EB4F-4225-9C56-A5B8805F5B0E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D21" xr:uid="{1A594F88-2A9A-48C2-AEE9-8DDCAAB45AFA}">
       <formula1>"IDH,算法,代理商,原厂,ODM&amp;OEM,自主品牌,声学方案"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4:K12" xr:uid="{72683558-4094-4A91-A695-545408A668D7}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K11" xr:uid="{6C7C457F-1E6C-48E4-A856-47CD9594EE83}">
       <formula1>"深圳市南山区,深圳市宝安区,深圳市龙华区,深圳市龙岗区,东莞市长安镇,中山市五桂山镇,东莞市高埗镇,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F22" xr:uid="{55A1DE0A-AF3D-4806-B7BB-5075890B434D}">
-      <formula1>"Pass,Fail,Pending"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F21" xr:uid="{730353C4-2EA4-46D1-A5AA-4CBF52F51B44}">
+      <formula1>"Pass,Fail,Pending, notStart"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2023/04合作商资料/合作商列表.xlsx
+++ b/2023/04合作商资料/合作商列表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\04合作商资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EABF4F-FB2D-4D1A-8740-80973F7D098D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B39CE-7EBF-43C3-8360-149FA64EF835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">意向合作商开发列表!$K$3:$K$22</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -491,6 +491,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -500,35 +503,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -862,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682D07EF-7A49-45B9-BC2D-114FE6E2E451}">
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -883,7 +862,7 @@
     <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="10" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" s="7" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -902,15 +881,15 @@
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="9"/>
+      <c r="L2" s="10"/>
     </row>
     <row r="3" spans="2:12" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">

--- a/2023/04合作商资料/合作商列表.xlsx
+++ b/2023/04合作商资料/合作商列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\04合作商资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B39CE-7EBF-43C3-8360-149FA64EF835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47D439C-36DF-4F9B-9881-EFCB5423ACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
+    <workbookView xWindow="25176" yWindow="0" windowWidth="21996" windowHeight="16824" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
   </bookViews>
   <sheets>
     <sheet name="意向合作商开发列表" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,10 @@
   </si>
   <si>
     <t>Allengo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023-5-29：通过聆感科技，初步合作已达成，正在进行算法资源评估，评估通过后可以导入具体项目</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -842,13 +846,13 @@
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.88671875" style="4" customWidth="1"/>
     <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.44140625" style="4" customWidth="1"/>
@@ -862,7 +866,7 @@
     <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="7" customFormat="1" ht="15.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -936,7 +940,7 @@
         <v>40</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>11</v>
@@ -998,7 +1002,7 @@
         <v>41</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>13</v>
@@ -1029,7 +1033,7 @@
         <v>42</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>58</v>
@@ -1104,7 +1108,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="2" t="s">
@@ -1358,9 +1362,11 @@
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>76</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>

--- a/2023/04合作商资料/合作商列表.xlsx
+++ b/2023/04合作商资料/合作商列表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\04合作商资料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rosa/Documents/Work/Soundec/soundec/2023/04合作商资料/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47D439C-36DF-4F9B-9881-EFCB5423ACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7292C4AB-FE7B-8840-AC44-A14C5DD7692E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25176" yWindow="0" windowWidth="21996" windowHeight="16824" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
   </bookViews>
   <sheets>
     <sheet name="意向合作商开发列表" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,27 +846,27 @@
   <dimension ref="B2:L21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.88671875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.5546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="91.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.77734375" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="17.6640625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="30.33203125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" s="7" customFormat="1" ht="24" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -895,7 +895,7 @@
       </c>
       <c r="L2" s="10"/>
     </row>
-    <row r="3" spans="2:12" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="32">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -926,7 +926,7 @@
       </c>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" ht="34.75" customHeight="1">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -957,7 +957,7 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="34.75" customHeight="1">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -988,7 +988,7 @@
       </c>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" ht="34.75" customHeight="1">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" ht="34.75" customHeight="1">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1050,7 +1050,7 @@
       </c>
       <c r="L7" s="3"/>
     </row>
-    <row r="8" spans="2:12" ht="25.8" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" ht="83" hidden="1" customHeight="1">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1069,7 +1069,7 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="2:12" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" ht="69" hidden="1" customHeight="1">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1094,7 +1094,7 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="91.25" customHeight="1">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1121,7 +1121,7 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="2:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="22.75" customHeight="1">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="2:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" ht="22.75" customHeight="1">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1167,7 +1167,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="2:12" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" ht="22.75" customHeight="1">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1194,7 +1194,7 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="2:12" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" ht="48" customHeight="1">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1223,7 +1223,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="2:12" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" ht="63" customHeight="1">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1252,7 +1252,7 @@
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="2:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" ht="25.75" customHeight="1">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1279,7 +1279,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="2:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" ht="25.75" customHeight="1">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1306,7 +1306,7 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="2:12" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" ht="25.75" customHeight="1">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1329,7 +1329,7 @@
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" ht="16">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1350,7 +1350,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" ht="16">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1373,7 +1373,7 @@
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12">
       <c r="B21" s="2">
         <v>19</v>
       </c>

--- a/2023/04合作商资料/合作商列表.xlsx
+++ b/2023/04合作商资料/合作商列表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Rosa/Documents/Work/Soundec/soundec/2023/04合作商资料/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\10 MRD\2023\04合作商资料\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7292C4AB-FE7B-8840-AC44-A14C5DD7692E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151340AB-EDCC-4129-9BCD-84A097AB69D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{C3A97647-F169-4AAC-8929-6D2FE1BA0156}"/>
   </bookViews>
   <sheets>
     <sheet name="意向合作商开发列表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">意向合作商开发列表!$K$3:$K$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">意向合作商开发列表!$L$3:$L$22</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="80">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -334,6 +334,20 @@
   </si>
   <si>
     <t>2023-5-29：通过聆感科技，初步合作已达成，正在进行算法资源评估，评估通过后可以导入具体项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARKAMYS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空间音频技术、汽车音响优化、媒体播放器的音效增强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.arkamys.com/
+阿嘉米斯(Arkamys) 是一家致力于数字音频信号处理的公司，它的音频处理解决办法应用于消费电子产品和车载音响系统领域。公司于1998年成立于巴黎，最初业务是通过音频空间化处理，对电影或者DVD的声音部分进行重新制作。如今公司转向音频优化软件行业，产品被广泛应用于消费电子产品如：手机，电视，平板电脑，MP3播放器以及车载音响系统。
+阿嘉米斯是公认的音频增强和空间定位技术的先驱。他们提供专业的数字音频软件和服务于专业娱乐设施和数码产品公司；为消费电子行业，包括移动电话，多媒体播放器，汽车音响，家庭数字影院提供专业音效增强服务。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -341,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,6 +393,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -394,7 +417,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -467,13 +490,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,9 +544,16 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -544,6 +588,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31516</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>3741420</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1905000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15FE3DBE-D345-43CE-9D4C-C1E864755683}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13190220" y="7400056"/>
+          <a:ext cx="3710940" cy="1873484"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -843,30 +953,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682D07EF-7A49-45B9-BC2D-114FE6E2E451}">
-  <dimension ref="B2:L21"/>
+  <dimension ref="B2:N21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="26.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="91.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="0" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="30.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="7.77734375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="85.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="55.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" style="4" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="30.33203125" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" s="7" customFormat="1" ht="24" customHeight="1">
+    <row r="2" spans="2:13" s="7" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -885,17 +996,18 @@
       <c r="G2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="10"/>
-    </row>
-    <row r="3" spans="2:12" ht="32">
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" spans="2:13" ht="27.6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -914,19 +1026,20 @@
       <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="2:12" ht="34.75" customHeight="1">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="2:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -945,19 +1058,20 @@
       <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3"/>
+      <c r="I4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="3"/>
+      <c r="L4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="2:12" ht="34.75" customHeight="1">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="2:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -976,19 +1090,20 @@
       <c r="G5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3"/>
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="3"/>
+      <c r="L5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="2:12" ht="34.75" customHeight="1">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="2:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -1007,19 +1122,20 @@
       <c r="G6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3"/>
+      <c r="I6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="3"/>
+      <c r="L6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" ht="34.75" customHeight="1">
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="2:13" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -1038,19 +1154,20 @@
       <c r="G7" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3"/>
+      <c r="I7" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="3"/>
+      <c r="L7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="2:12" ht="83" hidden="1" customHeight="1">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="2:13" ht="82.95" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -1063,13 +1180,14 @@
       <c r="G8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="2"/>
+      <c r="H8" s="3"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
+      <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="2:12" ht="69" hidden="1" customHeight="1">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="2:13" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -1088,13 +1206,14 @@
       <c r="G9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="2"/>
+      <c r="H9" s="3"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="2:12" ht="91.25" customHeight="1">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="2:13" ht="91.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -1111,17 +1230,18 @@
         <v>35</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3"/>
+      <c r="I10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="2:12" ht="22.75" customHeight="1">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="2:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -1138,13 +1258,14 @@
         <v>35</v>
       </c>
       <c r="G11" s="3"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="3"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="2:12" ht="22.75" customHeight="1">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="2:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -1161,13 +1282,14 @@
         <v>35</v>
       </c>
       <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="2:12" ht="22.75" customHeight="1">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="2:13" ht="22.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>11</v>
       </c>
@@ -1184,17 +1306,18 @@
         <v>34</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3"/>
+      <c r="I13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="2:12" ht="48" customHeight="1">
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="2:13" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>12</v>
       </c>
@@ -1213,17 +1336,18 @@
       <c r="G14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3"/>
+      <c r="I14" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="2:12" ht="63" customHeight="1">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>13</v>
       </c>
@@ -1242,17 +1366,18 @@
       <c r="G15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3"/>
+      <c r="I15" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="2:12" ht="25.75" customHeight="1">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="2:13" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>14</v>
       </c>
@@ -1269,17 +1394,18 @@
         <v>36</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3"/>
+      <c r="I16" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="2:12" ht="25.75" customHeight="1">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:14" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>15</v>
       </c>
@@ -1296,17 +1422,18 @@
         <v>36</v>
       </c>
       <c r="G17" s="3"/>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="3"/>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="2:12" ht="25.75" customHeight="1">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="2:14" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>16</v>
       </c>
@@ -1323,13 +1450,14 @@
         <v>34</v>
       </c>
       <c r="G18" s="3"/>
-      <c r="H18" s="2"/>
+      <c r="H18" s="3"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="3"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="2:12" ht="16">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>17</v>
       </c>
@@ -1344,13 +1472,14 @@
         <v>34</v>
       </c>
       <c r="G19" s="3"/>
-      <c r="H19" s="2"/>
+      <c r="H19" s="3"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="2:12" ht="16">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="2:14" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>18</v>
       </c>
@@ -1367,32 +1496,43 @@
       <c r="G20" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="3"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="3"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="2:14" ht="153.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>19</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="2"/>
+      <c r="G21" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H21" s="3"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="3"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21"/>
     </row>
   </sheetData>
-  <autoFilter ref="K3:K22" xr:uid="{682D07EF-7A49-45B9-BC2D-114FE6E2E451}"/>
+  <autoFilter ref="L3:L22" xr:uid="{682D07EF-7A49-45B9-BC2D-114FE6E2E451}"/>
   <mergeCells count="2">
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F3:F21">
@@ -1410,13 +1550,17 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D21" xr:uid="{1A594F88-2A9A-48C2-AEE9-8DDCAAB45AFA}">
       <formula1>"IDH,算法,代理商,原厂,ODM&amp;OEM,自主品牌,声学方案"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K11" xr:uid="{6C7C457F-1E6C-48E4-A856-47CD9594EE83}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L11" xr:uid="{6C7C457F-1E6C-48E4-A856-47CD9594EE83}">
       <formula1>"深圳市南山区,深圳市宝安区,深圳市龙华区,深圳市龙岗区,东莞市长安镇,中山市五桂山镇,东莞市高埗镇,"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F21" xr:uid="{730353C4-2EA4-46D1-A5AA-4CBF52F51B44}">
       <formula1>"Pass,Fail,Pending, notStart"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G21" r:id="rId1" display="https://www.arkamys.com/_x000a__x000a_阿嘉米斯(Arkamys) 是一家致力于数字音频信号处理的公司，它的音频处理解决办法应用于消费电子产品和车载音响系统领域。公司于1998年成立于巴黎，最初业务是通过音频空间化处理，对电影或者DVD的声音部分进行重新制作。如今公司转向音频优化软件行业，产品被广泛应用于消费电子产品如：手机，电视，平板电脑，MP3播放器以及车载音响系统。_x000a__x000a_阿嘉米斯是公认的音频增强和空间定位技术的先驱。他们提供专业的数字音频软件和服务于专业娱乐设施和数码产品公司；为消费电子行业，包括移动电话，多媒体播放器，汽车音响，家庭数字影院提供专业音效增强服务。" xr:uid="{DF98AEBD-8942-4106-9BA9-A90FE73052CB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>